--- a/medicine/Enfance/Sébastien_Perez_(écrivain)/Sébastien_Perez_(écrivain).xlsx
+++ b/medicine/Enfance/Sébastien_Perez_(écrivain)/Sébastien_Perez_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Perez_(%C3%A9crivain)</t>
+          <t>Sébastien_Perez_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sébastien Perez (né le 9 décembre 1975 à Beauvais, Oise) est un écrivain français, spécialisé dans la littérature de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Perez_(%C3%A9crivain)</t>
+          <t>Sébastien_Perez_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son premier ouvrage Destins de chiens en 2007, est illustré par Benjamin Lacombe[1] ; par la suite, de nombreux textes qu'il écrit sont illustrés (et parfois coécrits) par Benjamin Lacombe, qui déclare en 2020 : « La collaboration de Sébastien Perez est précieuse. Il trouve les mots que je n'oserais pas écrire. Il est à la fois très différent de moi, et en même temps l'auteur dont je me sens le plus proche. C'est pourquoi nous collaborons si régulièrement ensemble[2]. » Une quinzaine d'ouvrages sont ainsi réalisés ensemble, dont Le chabominable monstre des neiges en 2023, et une série jeunesse, Charlock.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier ouvrage Destins de chiens en 2007, est illustré par Benjamin Lacombe ; par la suite, de nombreux textes qu'il écrit sont illustrés (et parfois coécrits) par Benjamin Lacombe, qui déclare en 2020 : « La collaboration de Sébastien Perez est précieuse. Il trouve les mots que je n'oserais pas écrire. Il est à la fois très différent de moi, et en même temps l'auteur dont je me sens le plus proche. C'est pourquoi nous collaborons si régulièrement ensemble. » Une quinzaine d'ouvrages sont ainsi réalisés ensemble, dont Le chabominable monstre des neiges en 2023, et une série jeunesse, Charlock.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Perez_(%C3%A9crivain)</t>
+          <t>Sébastien_Perez_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Destins de chiens, illustrations de Benjamin Lacombe, Max Milo Éditions, avril 2007  (ISBN 978-2-35438-001-4)
 Corps de ballerine, illustrations de Justine Brax, Max Milo Éditions, septembre 2007  (ISBN 978-2-35438-007-6)
-La funeste nuit d'Ernest[1], coécrit et illustré par Benjamin Lacombe, Éd. Sarbacane, septembre 2007  (ISBN 978-2-84865-172-9)
+La funeste nuit d'Ernest, coécrit et illustré par Benjamin Lacombe, Éd. Sarbacane, septembre 2007  (ISBN 978-2-84865-172-9)
 Généalogie d'une sorcière, coécrit et illustré par Benjamin Lacombe, Éd. Seuil jeunesse, octobre 2008  (ISBN 978-2-02098-358-7)
 Grimoire de sorcières, coécrit et illustré par Benjamin Lacombe, Éd. Seuil jeunesse, 2008
 Ouki et le mystère de la nuit, ill. Justine Brax, Éd. Thomas Jeunesse, novembre 2008  (ISBN 978-2-35481-026-9)
@@ -594,7 +610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9bastien_Perez_(%C3%A9crivain)</t>
+          <t>Sébastien_Perez_(écrivain)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,10 +628,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sélection Prix Landerneau 2017[3], Catégorie Album jeunesse, pour Fils de Dragons, illustrations de Justine Brax
-Prix Saint-Exupéry 2021[4], catégorie Album, pour Et le désert disparaîtra , illustrations de Justine Brax</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sélection Prix Landerneau 2017, Catégorie Album jeunesse, pour Fils de Dragons, illustrations de Justine Brax
+Prix Saint-Exupéry 2021, catégorie Album, pour Et le désert disparaîtra , illustrations de Justine Brax</t>
         </is>
       </c>
     </row>
